--- a/CustomPCBs/cost_analysis.xlsx
+++ b/CustomPCBs/cost_analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\repositories\ImmersiveGloves\CustomPCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{34642437-D6AD-4301-B5D4-5CEB155D53F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00B13F8-AB88-4AE4-BDE6-9484DD674F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tundraIOExpansion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -245,12 +245,39 @@
   </si>
   <si>
     <t>Total/pair</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/samsung-electro-mechanics/cl05a225mq5nnnc/cap-2-2uf-6-3v-mlcc-0402/dp/3013335</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/multicomp/mc0402x104m160ct/cap-0-1-f-16v-20-x5r-0402/dp/2627420</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/kemet/c0402c270k5gactu/cap-27pf-50v-10-c0g-np0-0402/dp/2904560</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/multicomp/mc0402n220j250ct/cap-22pf-25v-5-c0g-np0-0402/dp/2627394</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Panasonic-Industrial-Devices/AYF332535?qs=RtJ0qN3Pzof%252BwnUyi8U%252B%2FA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/en-PT/multicomp/mcwr04x2000ftl/res-200r-1-0-0625w-thick-film/dp/2447132</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/en-PT/multicomp/mcwr04x1001ftl/res-1k-1-0-0625w-thick-film/dp/2447120</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/en-PT/multicomp/mcmr04x1002ftl/res-10k-1-0-063w-0402-ceramic/dp/2072517</t>
+  </si>
+  <si>
+    <t>https://pt.farnell.com/en-PT/ecs-inc-international/ecs-327-12-5-12-c/crystal-32-768khz-12-5pf-2mm-x/dp/3649608</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,17 +1224,29 @@
         <f>H3</f>
         <v>12</v>
       </c>
+      <c r="J3">
+        <v>1.4E-2</v>
+      </c>
       <c r="K3">
         <f>J3*I3</f>
-        <v>0</v>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
       </c>
       <c r="N3">
         <f>I3*50</f>
         <v>600</v>
       </c>
+      <c r="O3">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="P3">
         <f>O3*N3</f>
-        <v>0</v>
+        <v>4.2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1234,17 +1273,29 @@
         <f>H4+H21</f>
         <v>62</v>
       </c>
+      <c r="J4">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="K4">
         <f t="shared" ref="K4:K18" si="1">J4*I4</f>
-        <v>0</v>
+        <v>0.248</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N18" si="2">I4*50</f>
         <v>3100</v>
       </c>
+      <c r="O4">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="P4">
         <f t="shared" ref="P4:P18" si="3">O4*N4</f>
-        <v>0</v>
+        <v>12.4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1271,17 +1322,29 @@
         <f>H5</f>
         <v>8</v>
       </c>
+      <c r="J5">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
+      <c r="O5">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="P5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1308,17 +1371,29 @@
         <f>H6+H22</f>
         <v>24</v>
       </c>
+      <c r="J6">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
+      <c r="O6">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1443,17 +1518,29 @@
         <f>H9</f>
         <v>2</v>
       </c>
+      <c r="J9">
+        <v>1.75</v>
+      </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
+      <c r="O9">
+        <v>1.37</v>
+      </c>
       <c r="P9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1480,17 +1567,29 @@
         <f>H10</f>
         <v>4</v>
       </c>
+      <c r="J10">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
+      <c r="O10">
+        <v>3.3E-3</v>
+      </c>
       <c r="P10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.66</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1517,17 +1616,29 @@
         <f>H11</f>
         <v>8</v>
       </c>
+      <c r="J11">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.04</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
+      <c r="O11">
+        <v>2E-3</v>
+      </c>
       <c r="P11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1554,17 +1665,29 @@
         <f>H12+H25</f>
         <v>24</v>
       </c>
+      <c r="J12">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
+      <c r="O12">
+        <v>1.5E-3</v>
+      </c>
       <c r="P12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1837,22 +1960,28 @@
         <v>12</v>
       </c>
       <c r="J18">
-        <v>0.70399999999999996</v>
+        <v>0.47</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>8.4480000000000004</v>
+        <v>5.64</v>
+      </c>
+      <c r="L18" t="s">
+        <v>83</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="O18">
-        <v>0.66200000000000003</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="P18">
         <f t="shared" si="3"/>
-        <v>397.20000000000005</v>
+        <v>208.2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1861,14 +1990,14 @@
       </c>
       <c r="K19">
         <f>SUM(K3:K18)</f>
-        <v>163.92400000000001</v>
+        <v>165.53599999999997</v>
       </c>
       <c r="O19" t="s">
         <v>64</v>
       </c>
       <c r="P19">
         <f>SUM(P3:P18)</f>
-        <v>6290.48</v>
+        <v>6266.34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1885,7 +2014,7 @@
       </c>
       <c r="P20">
         <f>P19/50</f>
-        <v>125.80959999999999</v>
+        <v>125.32680000000001</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1909,7 +2038,7 @@
         <v>30</v>
       </c>
       <c r="N21">
-        <f>H21*50</f>
+        <f t="shared" ref="N21:N27" si="4">H21*50</f>
         <v>1500</v>
       </c>
     </row>
@@ -1930,11 +2059,11 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H27" si="4">C22*10</f>
+        <f t="shared" ref="H22:H27" si="5">C22*10</f>
         <v>20</v>
       </c>
       <c r="N22">
-        <f>H22*50</f>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
     </row>
@@ -1955,11 +2084,11 @@
         <v>50</v>
       </c>
       <c r="H23">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <f>H23*50</f>
         <v>500</v>
       </c>
     </row>
@@ -1980,11 +2109,11 @@
         <v>25</v>
       </c>
       <c r="H24">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <f>H24*50</f>
         <v>1000</v>
       </c>
     </row>
@@ -2005,11 +2134,11 @@
         <v>25</v>
       </c>
       <c r="H25">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <f>H25*50</f>
         <v>1000</v>
       </c>
     </row>
@@ -2030,11 +2159,11 @@
         <v>40</v>
       </c>
       <c r="H26">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <f>H26*50</f>
         <v>500</v>
       </c>
     </row>
@@ -2055,11 +2184,11 @@
         <v>46</v>
       </c>
       <c r="H27">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <f>H27*50</f>
         <v>500</v>
       </c>
     </row>
